--- a/Book.xlsx
+++ b/Book.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t xml:space="preserve">Codigo CA</t>
   </si>
@@ -59,6 +59,51 @@
     <t xml:space="preserve">11.999.333/0001-42</t>
   </si>
   <si>
+    <t xml:space="preserve">CEDIDOLUFALUFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lufalufa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.629.716/0001-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDIDOOSCORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCORP LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.267.616/0001-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDIDORAGNAROK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragnarok S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.153.907/0001-76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDIDOSOLUCIONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soluciona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.307.587/0001-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDIDOISEVIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sevira do Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.024.074/0001-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Operacao</t>
   </si>
   <si>
@@ -83,25 +128,55 @@
     <t xml:space="preserve">01234567891</t>
   </si>
   <si>
-    <t xml:space="preserve">000000000000001</t>
+    <t xml:space="preserve">000000180554352</t>
   </si>
   <si>
     <t xml:space="preserve">01234567892</t>
   </si>
   <si>
-    <t xml:space="preserve">000000000000002</t>
+    <t xml:space="preserve">000000343803684</t>
   </si>
   <si>
     <t xml:space="preserve">01234567893</t>
   </si>
   <si>
-    <t xml:space="preserve">000000000000003</t>
+    <t xml:space="preserve">000000263412923</t>
   </si>
   <si>
     <t xml:space="preserve">01234567894</t>
   </si>
   <si>
-    <t xml:space="preserve">000000000000004</t>
+    <t xml:space="preserve">000000735042819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85305489000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000012234678912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63976499000197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000392704518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62151285000119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000509213903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84387282000111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000266070041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15105678010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000805832098</t>
   </si>
 </sst>
 </file>
@@ -211,16 +286,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.58"/>
   </cols>
   <sheetData>
@@ -266,6 +341,61 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -284,34 +414,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="19.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,10 +449,10 @@
         <v>11345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -336,10 +466,10 @@
         <v>11346</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -353,16 +483,16 @@
         <v>11347</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>121.38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,10 +500,10 @@
         <v>11348</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -387,16 +517,101 @@
         <v>11349</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>263.38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>12456</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10123.99</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>23567</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>204.66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>77.5</v>
       </c>
     </row>
   </sheetData>
